--- a/PCAstatic/PCAstatic_predicted_variables_matrix_9.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2844958009011215</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2724487344475909</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2615022096644991</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.251728350619462</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2431628224459444</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2358103669391544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2296500264616034</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2246399198563454</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2207215867315171</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2178238989332766</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2158665488481066</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2147631281496027</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2144238134139413</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2147576770770244</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2156746439904777</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.217087115499738</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.218911284504473</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2210681662826033</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2234843708628197</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2260926433359575</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2288321986585661</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2316488772168144</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2344951467127735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.237329974859221</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2401185959882774</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.242832193063697</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2454475148054101</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2479464457513596</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2503155451512936</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2525455686566881</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2546309848785981</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2565694970613748</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2583615783884486</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2600100278146231</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2615195518204967</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2628963761175853</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2641478901027067</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2652542672549503</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.266254165762722</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2671554739460775</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.267967352477478</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2686989321768413</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2693590750774414</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2258027568494352</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.235013338529075</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2435877316805109</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2513400012792112</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2581477985731664</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2639417243272333</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2686958260790637</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2724191838065427</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2751485069421724</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2769416619139033</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2778720518669339</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.278023775157568</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2774874949862712</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.276356957939117</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2747261036514199</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2726867111684499</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2703265300168283</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2677278458163598</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2649664317844941</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2621108390018122</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2592219800273615</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.256352962500957</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2535491317900506</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2508482845129604</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2482810178368042</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2458711827218901</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2436364126706233</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2415887029471536</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2397350185832536</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2380779127096085</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2366161397983763</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2353452512357447</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2342581632383944</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2333456894722979</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2325970328217815</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2320002325936933</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2315425650332655</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.23122066494097</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2310114952562688</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2309017216552253</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2308784874657241</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.230929497456146</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2310431818356974</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1659917695033019</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1776036352385381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1886502343505242</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1989481711642068</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2083654598222134</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.216814602818463</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2242461642410594</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2306428227118437</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2360139152823995</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2403904656099591</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2438206859619005</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2463659401084122</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2480971527635161</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2490916499230957</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.249430412836029</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2491957263509569</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.24846920013</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2473301389290877</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2458542360448535</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2441125623176279</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2421708218960437</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2400888453816062</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2379202909911207</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2357125249629967</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2335066535192792</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2313376801893234</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2292347641074192</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2272215569217489</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2253165981104169</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2235337507178168</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2218826617397256</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2203692335489482</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2189960948270034</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2177630614230387</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2166675793788779</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2157051440257639</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2148696905663886</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2141724267141702</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2135865723027573</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2131032028071935</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2127131522092329</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2124071872482349</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2121761678704361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.06028481853680816</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05334139854692795</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04739165922887512</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04244703106163424</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03849182438359144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03548888628341423</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.03338448949926313</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.03211262991123181</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03159875307366759</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03176295660764823</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.03252271154567394</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03379514415039461</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.03549891745650658</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.03755574970772455</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.03989160512024585</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04243759099514163</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04513059401020136</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04791368740117528</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.05073633956071692</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05355445324524412</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05633026303441747</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05903211692509719</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06163416598379908</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.06411598387252367</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.06646213585701471</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06866171466123561</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07070785830082292</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07259726285797002</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07432970108817652</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07590755580389222</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07733537518104266</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07861945549409842</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.07976745530993468</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.0807880438616277</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08169058517818899</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08248485855989673</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08318081515408841</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08376746311044947</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08427578804861102</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08471523136901479</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08509472007433004</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08542261014136268</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08570663800550596</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.1708644644724644</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1826338859431717</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1928727080499923</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2015862995428888</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.208815035349534</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.214626977342292</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.219111132608672</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2223716314512307</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2245227073346459</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2256844113840273</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2259789926800793</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2255278817611377</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2244492201184407</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2228558831091403</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2208539472861777</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2185415557566862</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2160081370941863</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2133339348631166</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2105898062608391</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2078372499675719</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2051286251602993</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2025075258537897</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.200009277275727</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1976615238120364</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1954848810933115</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1934936279427682</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1916964170801236</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1900969865929728</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1886948571799982</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1874860029863662</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1864634864536799</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1856180499710887</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1849386592282877</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1844129950320054</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1840278919591126</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1837697235908371</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.183624735216677</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.183584531660718</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1836309780760678</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1837508312400557</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1839321565831961</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1841637676847673</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1844354357297303</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4336751068891702</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4243402429803389</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4154800345538574</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4072642542452125</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3998164827462563</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3932201952541388</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3875243892522852</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3827488527969102</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3788890268310692</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3759204517139327</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.373802796852656</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3724834797908111</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.371900885833387</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3719872026280455</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3726708866704373</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3738787807980865</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3755379035225729</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3775769325505773</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3799274060351668</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3825246659410943</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3853085683734863</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3882239857995385</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3912211258004256</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3942556903561254</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3972888987322211</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4002873958547601</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4032230666787858</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4060727755286289</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4088180477602695</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.411444709410057</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4139424987867035</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4163046622665945</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4185275448931852</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4206101847824379</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4225539188167406</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.424362005684803</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4260392710064276</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4275569469595092</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4289580199975216</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4302496693364506</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4314399917449271</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4325372986362438</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4335499383056572</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2357465827082788</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2238476239150857</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2123408974791588</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2013829909873165</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1910969223643579</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1815749851691855</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1728816412799698</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.165056525144132</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1581174522131447</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1520633751435346</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1468772408107168</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1425287117583158</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1389767237640605</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1361718580276767</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1340585124855108</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1325768621899702</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1316646036590729</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1312584826128053</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1312956085358327</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1317145629974288</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1324563115863609</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1334649316676825</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1346881699489044</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1360778450838676</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1375901112882015</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1391855992451602</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1408294505047</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1424912611829733</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1441449501132682</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.145768565738442</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1473440450199071</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1488569365147765</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1502960985810164</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.151653382445362</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1529233086402795</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1541027441097535</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1551905861201026</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1561705228087986</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1570613657957462</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1578668634290305</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1585912022733391</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1592392109823087</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1598162313132322</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3862246184052201</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.372578088853377</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3590095984600101</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3459543280272332</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3337429189746376</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3226157248336249</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3127359323414013</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3042015468182825</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2970562500602424</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2912991706522709</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.2868936188704763</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2837748438537303</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.281856871804025</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2810384831188926</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2812083850331289</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2822496352911616</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2840433718108328</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.2864719031496107</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.2894212146136913</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.2927829447946615</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.2964558869496601</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.300347068801778</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3043724629481113</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3084573781134636</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3125365790216678</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3165541797527759</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3204633522103763</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3242258878419089</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3278116471348418</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3311979277419947</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3343687784466957</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3373142826261264</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3400298314598579</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3425154038995254</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3447748673943383</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3468153105766882</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3486464165663609</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.350255584666343</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3516805418574758</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.352935741997186</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3540361540798655</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3549969484879857</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3558331744055089</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3832497829211607</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3934433521454756</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4021459962306192</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4094081314152953</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4153028911533048</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4199204496256244</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4233631372444788</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.425741225461943</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4271693220214441</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4277633167097494</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4276378249942668</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4269040829523407</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4256682518825249</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4240300945952919</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4220819877246852</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4199082357767842</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4175846534044311</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4151783829271272</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4127479146928061</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4103432787090794</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4080063771700966</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4057714291070791</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4036655003708334</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4017090944473515</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3999167821250088</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3982978506787509</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3968569559217849</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.395594763118281</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3945085652856549</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3935928697919247</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3928399463373102</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3922403313777681</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3917832857908853</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3914572040997115</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3912499748627272</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.391149292918252</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3911429250526832</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.391228457876655</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3913847851710278</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3916008985585455</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3918665733654585</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3921724165827634</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3925099024789637</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2228919855080712</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2152455678390947</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2082406412775177</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2019518983377732</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1964260904747319</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1916857381878006</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1877328667161806</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1845524595192579</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.18211564140674</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.180382580112629</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1793051051454608</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1788290467248063</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1788963009407362</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1794466299124087</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1804192079966083</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1817539270987266</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1833924758746459</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1852792090485162</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1873618241688108</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1895918638564254</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1919250619577941</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1943215520177833</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1967459561633627</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1991673718831469</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2015592733491004</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2038993429054702</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2061692471945245</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2083543711427278</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2104435217329686</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2124286121710788</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2143043357455428</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2160678374004961</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2177183898121514</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2192570795922974</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2206865081508987</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2220105107416802</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.223233896295979</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2243320996003835</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2253415481697405</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2262690593448719</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2271211119323486</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2279042942629996</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2286250958824452</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.05034428908453333</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03599322396604285</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02433437463191216</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01526919745874937</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.008651390221818024</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.004299662285179237</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.002008670693970663</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.001558310130165455</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.002721505610990174</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.005270663108623598</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.008982922271719769</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01364434408550482</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01905315489666728</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.02502215799504835</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.03138041520679839</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.03797429358994373</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.04466796597700109</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.05134344836543611</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.05790025164873135</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.06425471964383123</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07033911965593934</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07610054588495632</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.08149968985555828</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08650952583358781</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09111395298950056</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.09530643000451744</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.09908863199642912</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1024691541606455</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1054622814466354</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.108086838966212</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1103651336834606</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1123219942743395</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1139839128611474</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.115378289606805</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1165327788724206</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1174747337700639</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1182307444489795</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1188021292108638</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1192373181081008</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.11955905002295</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1197880521130584</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1199431293550714</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1200411053264649</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01122525684501114</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01111812514793767</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01117889212987635</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01145895517323949</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01198852427360909</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.0127807192843461</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01383506043678794</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01514052105872054</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01667816001196703</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01842337418182185</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02034780693094727</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02242094651610603</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02461144612323894</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02688819500231731</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02922116821993009</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.03158208079543203</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.0339448703935461</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03628603124653995</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03858482051276679</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.04082335680285188</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04298662909778584</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04506243274074245</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04704124761680002</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.0489160720611053</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.0506822244796982</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05233712315191928</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.05388005323043338</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.05531192858199539</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.05663505483236358</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05785289880103578</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05896986844069075</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.05999110643403954</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06092229974631276</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06176950668199827</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06253900234541021</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06323714285093215</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06387024816435082</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.0644217841290721</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06492049300952514</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.0653724076281844</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.0657829532798334</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06615712648282289</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06649952771358315</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.119791828317011</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1464824676831584</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1683786305100261</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1856120265439616</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1984154019080439</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2070965071333796</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2120156238944968</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2135665593549123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2121607339986955</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2082140320535177</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2021361021749171</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1943218237167403</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1851446810292649</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1749518127764691</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1640605242528776</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1527560682429553</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1412905147971518</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1298825432889511</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.118718002104437</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.10795109295042</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.09770604846398175</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.08807918375467555</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.07914121471718497</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.07093974829649288</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06350186217694982</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05683670338242762</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.0509380468065116</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04578676555879679</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04135317507618749</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03759922211105921</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03448049791717732</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03194806219130945</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02995007060455481</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02843320410575194</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02734390264908684</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02662940964913185</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02623863636560669</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02613235254295731</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02625585965176502</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02656559566329375</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02702209690187964</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02758978314986244</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02823703353798816</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.05878103763054909</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08573458028762899</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1067477994158929</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1220910520658295</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1321407630360644</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1373484633568434</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1382145480059</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.135266333365323</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1290399503096108</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1200656343702896</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1088560063132212</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09589697370753336</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08164092036782562</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06650188328752582</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.05085244494917703</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.03502209297144787</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01929681980164709</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.003919753631301676</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.01090737114851972</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.02502207910962905</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.0382985133723632</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.0506444320581141</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.06199796769786464</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.07232425948979632</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.08161205248335221</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.08987034257291483</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.0971251318347371</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1034163454190328</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1087949490476563</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1133202952470839</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1170577167993636</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1200763775131868</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1224473832646127</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1242421502704683</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1255310226593817</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1263821275081536</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1268604525217572</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1270082777241841</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1269008010664199</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1265909927408242</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1261265587694209</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1255499089163889</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1248982460574993</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.449246011162085</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4885358313661885</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.520239769024166</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5446467638980936</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5621896343762065</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5734050811033051</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5788998315494458</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5793221606676263</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.575338244491678</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5676127980886392</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5567934944914228</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5434987081587774</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5283081724779896</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5117561817689504</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4943270030463975</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4764521918384711</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4585095308598086</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4408233317658053</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.4236658599251331</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4072596611793677</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3917805885701313</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3773613463049004</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.364095387814094</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3520410244369275</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3412256207630603</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3316497716134832</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3232913737440813</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3161095223239135</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3100481778679125</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3050395634508346</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3010072646219331</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2978690154607827</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2955391636923763</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2939308157769749</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2929576694947279</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2925355468603789</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2925836443426734</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2930283403095633</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2937968582797777</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2948217866691628</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2960424763697976</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.29740480270294</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2988610380133128</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6519207504376585</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6698607590559384</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.682260063943005</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6895071659174854</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6920681192848064</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6904584146360366</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6852196322192242</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6769003722919203</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6660409246809428</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6531611999149607</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6387514881865972</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6232656594135664</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6071164608524056</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.590672606543262</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5742573850347944</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5581485390357467</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5425791939734407</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5277396330861324</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5137797356521037</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5008119130092413</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4889143945972994</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4781347335532906</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4684934184017224</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4599874939688408</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4525941106104052</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.446273935956876</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4409743774495675</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4366325768091613</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4331781491379602</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4305356495552592</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4286267590941545</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4273721890800848</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4266933094288675</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4265135113290802</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4267593187086387</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4273612658345924</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4282545604678271</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.429381358134748</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4306853185669394</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4321178758304953</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4336353827400131</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4351998945832279</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4367790009428854</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.01857555823962025</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.009730254088875526</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00129254778117055</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.006935651089322856</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.0150843711338064</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.0232295724680312</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.03140551105840816</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.03961509464687686</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04783852996946358</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.0560404583137188</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06417577294323841</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07219429357233619</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.08004445544214106</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.08767615343787613</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.09504286598329227</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1021031693956357</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1088217409541912</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1151699379357103</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1211260300515303</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1266751538433653</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1318090494617428</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1365256327242354</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.140828448345707</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1447260437089565</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1482312964899754</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1513607238724189</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1541337959910277</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1565722716417138</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1586995701883343</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1605401899757843</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1621191804104861</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1634616721697935</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1645924677228048</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1655356924543085</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1663145051466826</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1669508653564018</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1674653542875606</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1678564449296828</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1681621231084335</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1683987524850755</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1685807142047582</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1687208084358844</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1688301384953894</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4207079682620025</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4292001602110965</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4351676865177043</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4387298475643656</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.440056075690971</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4393512103424096</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4368428772994635</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4327710197635932</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4273792991332791</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4209081437055646</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4135892404337791</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4056412869061249</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3972668402660084</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3886501167147811</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3799556094104145</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3713274044104503</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3628890843969454</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3547441188734908</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3469766478535841</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3396525741342016</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3328208872833421</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3265151505461428</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3207550899694522</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3155482330720492</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3108915522263572</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3067730754396855</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.303173434312068</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.3000673255090653</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2974248680537851</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2952128440725756</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2933958153080249</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2919371117466187</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2907996921188142</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2899468788504963</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2893429723192825</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2889537510444023</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2887468657650126</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2887159665553133</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2888090342338306</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2890005719101967</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2892676633467374</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2895899638476303</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2899497626364188</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3880485931665696</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4232021285742609</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4507133792441152</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4709649371297865</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4844656488449383</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4918123229629741</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4936575760690513</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4906829979976514</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4835770780434814</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4730173335124517</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4596561304829329</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4441097354900343</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.426950184054343</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4086995938681913</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.389826586174102</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3707445089351561</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3518111810448623</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3333298994838304</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3155514722843825</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2986770603738603</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2828616314237334</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2682178489851775</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2548202404262897</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2427095073061848</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2318968615360585</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2223682896684544</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.21408866562645</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2070056488886587</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2010533204038863</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1961555222090792</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1922288788167263</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1891854889271659</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1869352849534353</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1853880652987127</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1844552103978725</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1840510983376812</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1840942395245395</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.184518595252698</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1852431662055194</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1862024588999537</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1873371647257906</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1885947425337766</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1899292343441978</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.6066328756346651</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6383721333350132</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6626661775566818</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6801803497565262</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6916155695033755</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6976864716080726</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6991035829110015</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6965589431200889</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6907147661490783</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6821947493580738</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6715776821014551</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6593930439124656</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6461183173199663</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.632177769290745</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6179424789919634</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6037314090199762</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5898133337449004</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5764094532003972</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5636965349749666</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.551810440480531</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5408499061173699</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5308804642924948</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5219384038658943</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5140346841684621</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5071587309821353</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.501282056523469</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4963616582869902</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4923431633963917</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4891636957501873</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4867544526605314</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.48504298584612</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4839551885699973</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4834169964598776</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.483355814184118</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4837016837678429</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4843882130169396</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4853532843730253</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4865393234095177</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4878950918538325</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.489372553974654</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4909296815787704</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4925299153668148</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4941419511638583</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.4344607401032874</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4542904387143924</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4687292073941636</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4781424046705042</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4829679996515367</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4836906693663287</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4808202830740907</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4748742382909604</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.466363199968457</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4557798155507234</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4435900191646923</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.430226578405464</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4160845748194295</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4015185422644946</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3868410155208929</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3723222653876398</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3581910170020519</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3446359663116119</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3318079264185161</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3198224515740763</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.3087628023234368</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2986831308547961</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2896117809745029</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2815546121750896</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2744982717928623</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2684133530570099</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2632573897246282</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2589776498255135</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.255513701704314</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2527997349906878</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2507666273388897</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2493437547811141</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2484605493863546</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.248047812680952</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2480387970541383</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2483700702350754</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2489821799838101</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2498222626379396</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2508381412841839</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2519841235400032</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2532194119705341</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2545083846649786</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2558204179254115</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.01202150004716634</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.004441891174123302</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01616958311244224</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02352935320260791</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02693763173494221</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02683989535080941</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0236941305838162</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01795737713752493</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01007495026890809</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0004720130873620276</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.01045280744871208</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02233203630297712</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.03483244501564152</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.04765684704374211</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.0605447936849403</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.07327235158371979</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.08565112623245144</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.09752668087000504</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1087764861268246</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1193075222323728</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1290536423482804</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1379727925456146</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1460441711572847</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.153265397831285</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1596497507438608</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.165223519259935</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1700235089851277</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1740947267392358</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1774882645568612</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1802593944121074</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1824658789642203</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1841664981974882</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1854197873303026</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1862829777305846</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.186811129725224</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1870564440529784</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1870677372054235</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1868768342634429</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1865376055462704</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1860879181056774</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1855608654655206</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1849853669802662</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.184386219015887</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.432377574949133</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.275353076588368</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.080390642195741</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.858895347096591</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.620714686409112</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.374234540204025</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.12648424546609</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.883246474679229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.64916920098798</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.427877619786027</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.222084383859213</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.03369685032487</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.863920285757</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.713356165341807</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.582094859044376</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.46980213968204</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.375799083799273</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.29913506976442</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.23865370815193</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.193051664734751</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.160930453050668</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.140841378462393</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.131323906547688</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.130937804099648</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.138289460483411</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.152052840881847</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.170985551986645</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.193940516293466</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.21987375492896</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.247848772566511</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.277038023169176</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.30672191365321</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.336285775600762</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.365215204235321</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.393090130233402</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.419577954660302</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.44442604132558</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.467451752679116</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.488537371255254</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.507623823660579</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.524700188014509</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.539796206400373</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.552975146017584</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.432314715498993</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.4075151737280418</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3857461541808542</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3668460428079108</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3506405295004731</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3369428464999197</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3255584028012371</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3162884319716221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3089333183253951</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3032955210736739</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2991821063804938</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2964068946338476</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2947922364016164</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.294170434259327</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2943848308812874</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2952905865290771</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2967551713952631</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2986586001061351</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3008934369811664</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3033646013357551</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3059890021825893</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3086950311607772</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3114219414594259</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3141191389855774</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3167454101495537</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3192681085008119</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3216623201368381</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3239100254097154</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3259992720414073</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3279233723885901</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3296801353181183</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.331271141000953</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3327010649320463</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3339770556545366</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3351081690200451</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3361048603586279</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3369785346629521</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3377331393402225</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3383906847703285</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3389643478131997</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3394630947092845</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3398983064592812</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3402806975970098</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.323059554134223</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.302168919598267</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2816362245327992</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2618327084058018</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2430468343186811</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2254957990240743</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2093337190595601</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1946597922239413</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1815259669244664</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1699441215416327</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1598927210908522</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1513229382827626</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1441642349525259</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1383294061742066</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1337190940925517</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1302257826465811</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1277372883835945</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1261397665844264</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1253202558485411</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1251687879356305</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1255800928310355</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1264549315341688</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1277010908598929</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1292340755536662</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1309775332695384</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1328634475061992</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1348321325292507</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1368320627318547</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1388195669093428</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1407584156511441</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1426193275818325</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1443794175972255</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1460216076141532</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1475340177445099</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1489093532650518</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1501443003235989</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1512389410302974</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1522057056589735</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.153039506006277</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1537488734855041</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1543418140994568</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1548275161644835</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1552162312623352</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2472568016104806</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2211581365754258</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1962238408391271</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1727213516975477</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.150848945034863</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1307445769484477</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1124927690234171</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09613143240538638</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.08165843807474657</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06903787035563154</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0582059071220565</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04907628862080766</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.04154534878709764</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03549659213292151</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03080480698855362</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02733971287725154</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02496914643706737</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02356179661327749</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02298950570939674</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02312915812331196</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02386418303629425</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02508570084346991</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02669334565557105</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.02859579776743263</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03071106063544452</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03296651672885226</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03529879573638448</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03765348714788452</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.0399847273178437</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04225468887362752</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04443299786363467</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04649610144345694</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04842660625084361</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05021260498865052</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05184700617212348</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05332687954484504</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05465282735860418</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.0558155869647697</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05684424406491088</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05773743377325403</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.0585032151375342</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.059151753499465</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05969400288334156</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>1.005515825040248</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.975109924696711</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9462685768870998</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9194035457038043</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8948067900364</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8726698396627902</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8530975984608936</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8361218858345117</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8217138266571617</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8097951607904806</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8002484638689248</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7929263034690468</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.787659366060607</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7842635980146244</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7825464089088789</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7823119890005342</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7833657957175861</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7855182666213879</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.788587818510698</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7924031940509229</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7968052183722428</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8016480283697393</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8067998368969411</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8121432926721504</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.817575494568344</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8230077161256704</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8283648927277932</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8335849200474883</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8386178082208591</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8434247318737956</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.847977011707691</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8522550589487109</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8562473096565255</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8599491717406642</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8633620035988441</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8664921396131037</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8693499743469586</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8719443289220636</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8742788487261866</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8763885606686317</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8782929715237571</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8800113060101641</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8815633391389768</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.670492381991772</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.30218858111353</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.954353502820982</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.629093570903978</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.327921050129333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.051800183444272</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.801196968148941</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.57613279735206</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.376239746110053</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.200816055989833</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.048880634716713</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.919225620257667</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.810466241870732</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.721087368919957</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.649486281797459</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.594011333154239</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.552996292961383</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.524790286736689</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.507783340772417</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.500427639600152</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.501254677949423</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.50888855153343</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.522055678287384</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.539591274968852</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.560442934535547</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.583671658958576</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.608450701754709</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.634062566187197</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.659894490376103</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.685432730934587</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.710255933513428</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.73402785293684</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.756489658435209</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.777452031663016</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.796787237435528</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.81442132000533</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.830326551698127</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.844501652702761</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.857003069156628</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.867900465900006</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.877284923190157</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.88526160457685</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.891946292167285</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8771339883942528</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8373584534345144</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8015776348229335</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7697550049547386</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7417963689798119</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7175587732863655</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6968601609501333</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6794881708166486</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6652081501738866</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6537703591152094</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.64491636775851</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6383846611097981</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6339154768070151</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6312549081651555</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6301583104600746</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.630393052932875</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6317406628469192</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6339984111079903</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6369803913770729</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6405181461587087</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6444608939646576</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6486754113181614</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6530456221222317</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6574719448578754</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6618704453296358</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.666171839377892</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6703203862753291</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.67427270955764</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6779965779317562</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.681469674768077</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6846783806082323</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6876165891815695</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6902845736808653</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6926879165456764</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6948365127729642</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6967436538413351</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6984251967103711</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6998914492955033</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7011710021643193</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7022842730144438</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.703247866894619</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.704080760101136</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7048016651668159</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.2996501151122235</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3404443255153146</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3751505272602523</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4042298465688688</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4281651629328298</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4474442470471985</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.462551980962801</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4739631262326381</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4821364223840035</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.487509790991135</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4904965532745609</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.491482563828717</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4908241721848112</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4888469295069524</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4858449615580641</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4820809313415884</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4777865161947428</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4731633252448209</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4683841846017222</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4635947198346595</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4589151683713781</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4544423585025459</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4502517965843032</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4463998096367196</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4429256966200515</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4398538480080871</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4371957996551675</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.43495219318487</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4331146210631611</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4316673400434199</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4305888417065639</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4298532733190574</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4294317061732137</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4292932519569692</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4294060305390697</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4297379948767702</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4302576205913499</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4309363573914563</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4317226418556896</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.432610068321896</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4335735972860464</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4345907972762</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4356412594492445</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.7130964974590932</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6838019664996552</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6567709206301028</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6321994251764887</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6101983623623252</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5908054442263324</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5739978339573392</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5597033596743887</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5478106486235111</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5381781728422668</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5306422563231258</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5250240981041631</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5211358699257007</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5187859477352247</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5177833360230986</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5179413436088043</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5190805694274581</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5210312570569333</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5236350769621861</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5267463954520224</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5302330889160047</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5339769608817316</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5378738177366219</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5418332566010591</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5457782158869124</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5496443356302843</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5533791708717347</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5569412972966803</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.560299344161885</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5634309853262675</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5663219150649702</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5689648313471786</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5713584454572679</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5735065332780908</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5754170402649722</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5771012491394808</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5785730166346922</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5798546697162714</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5809527566872543</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5818900323869508</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5826834771953573</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5833511309868222</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5839105459273887</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8614577188450511</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8396262017016274</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8200842180838441</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8028409094942643</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7878614473956846</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7750728708759705</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7643723591482782</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7556342278107058</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7487161787442733</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7434647727185594</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7397201709026262</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7373201913442896</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7361037303205076</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7359135988385258</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7365988239133224</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7380164631610617</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7400329800687194</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7425252261043868</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.745381074576045</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7484997497413015</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.751791893036128</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7551794063772498</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7585951102879778</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7619822521217515</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7652938969568025</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7684922308689428</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7715478033230113</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7744387324211143</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.777149893766147</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7796721107925924</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7820013616249984</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7841380148807745</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7860861043631336</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.787852650310376</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7894470327915062</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7908804209726894</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7921652603270583</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7933110348345747</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7943362632944104</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7952556621856821</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7960809071236117</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.796825287304921</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7975014095279094</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7095311840034279</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7335613999875126</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7553091483805012</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7747531314669105</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7919196158066596</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8068763872663197</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8197236941332866</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.830586738263181</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8396089918108296</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8469463471026233</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8527620307189355</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8572222267980626</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8604923584502847</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8627339803868782</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8641022384663611</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8647438529736958</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8647955823837474</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8643831236040095</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8636204037470365</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.862609217781835</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8614391662677645</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8601878479641643</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8589212634924219</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.857694388366199</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8565518764939325</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8555288585504119</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8546518032511214</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8539394133873289</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8534035323504988</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8530500406727163</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.852879725741749</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8528891112461509</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8530712360206308</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8534163747672331</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8539126956114763</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8545468516143747</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8553045052100957</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8561435184493609</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8570756854285655</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8580849628887685</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8591591421875207</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8602842665156502</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8614473686660089</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.7969806074546245</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7899750326495586</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7840000428401457</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7791144473716539</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7753321437295979</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7726314231052041</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.7709631454247388</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7702577988182957</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7704315261988602</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7713912083375856</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7730386973787283</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7752742928950236</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7779995477386246</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7811194846809495</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7845442982098699</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.7881906094214257</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7919823359417381</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7958512332884736</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.799737158981695</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8035881059621932</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8073600473975987</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8110166307000681</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8145287545157182</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8178740585672098</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8210363525426617</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.824005006739027</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8267743239003464</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8293429086528573</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8317130481377318</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8338901148815201</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8358820006233046</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8376985877316486</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.83935126298681</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8408524768656738</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8422153500387511</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8434533275598833</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8445798801890445</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8456021110140562</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8465388653297993</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8474025595279537</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8482048252984598</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8489564153664776</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.849667139643721</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7383410344722351</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7271126123682038</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7181297448138043</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.711319972087276</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7065646417471256</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7037112882363322</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7025843093904199</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7029939609012978</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7047438335443872</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7076369694627266</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7114807719880883</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7160908545529481</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7212939632366742</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7269300959674126</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7328539303697563</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7389356620945378</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7450613462299676</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7511328259378884</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7570673245978081</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7627967703060743</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7682669144509047</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7734362992068755</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7782751221553645</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7827640398652483</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7868929462043333</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7906597554449291</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.7940692149202334</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7971317671148374</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.7998624766527145</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8022800336866759</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8044058416903221</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8062631945937785</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8078765455681377</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8092708675263475</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.81047110354319</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8115017038756251</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8123862450580275</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8131437828863938</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8137982726101948</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8143696336140749</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8148758008956127</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8153328944815674</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8157551884088047</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7089289742204924</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6962325198712916</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6859894245423688</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6781123430063413</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6724671329276</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6688856090229165</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6671764622641585</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6671344713372769</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6685481642458453</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6712060900138808</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6749018568310156</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6794380839259505</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.68462940323937</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6903046353928878</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6963082534700987</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7025012380917237</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.708761418178018</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7149833834784044</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7210780471973115</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7269719296716636</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7326062269350708</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7379357210776341</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7429275825744164</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7475601082437672</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7518214322625849</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7557082417681261</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7592245230683691</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7623803594066352</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7651907966079995</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7676747887873434</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.769854232621307</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7717530954681245</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7733966398419371</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7748107443879912</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7760213195349815</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7770538143916993</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7779328101770606</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7786772675261462</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7793140232447371</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7798630922892529</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7803432490322916</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7807714025351334</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7811625443230753</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6849558061145127</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6716772291311638</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6602969388423383</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6507387234919042</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6429025357494793</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6366707664578017</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.631913676680582</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6284941007933896</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6262714489217758</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6251050622388651</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.624856977850912</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6253941605684823</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6265902570282196</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6283269248480001</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.630494786443874</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6329940541324982</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6357348702778849</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6386374034905117</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6416317391841536</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6446576000788632</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6476639294694151</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6506083672483136</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6534566457972346</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6561819299734009</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6587641225591253</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6611891537557717</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6634482706259626</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6655373398513172</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6674561748007835</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.669207895712485</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6707983297890806</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6722354561966757</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6735288993400406</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.67468947235907</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6757287715476189</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6766588213291653</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6774917685259398</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6782391265833089</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6789126927218201</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6795239939787139</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6800836643204935</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.680601499768767</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6810864487974547</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.5736202041074975</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5708602590978273</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.568807000629074</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5674738527474169</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5668456050095491</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5668853277372755</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5675403470589448</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5687472764650817</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5704361995368593</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5725340925422177</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5749675765677582</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5776650844797483</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5805585217563691</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5835844931493975</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5866851599943255</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5898087861971706</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5929100246552551</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5959499901488936</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5988961595319238</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6017221352876502</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6044073041411356</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.60693641838054</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6092991238071147</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6114894547868964</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6135053137076497</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6153479492473426</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6170214452315308</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6185322294912795</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6198886100228951</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6211003438853677</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6221782426382662</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6231338167074838</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6239789598534655</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6247256738908026</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6253858329540446</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6259709859074244</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6264921949416458</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6269629662437561</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6273898222834696</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6277818280595115</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6281472524564281</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6284934965946696</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6288270712939076</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.745042923140028</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7416369347970649</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7386370388818114</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7361792048812836</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7343477747428724</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7331850751119401</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7326999960299154</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7328754125493002</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7336745585033801</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7350464417534828</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7369303978113942</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7392598762286435</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.741965548837641</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.744977822050516</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.748228828155639</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7516539635237073</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7551930351351389</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7587910709435942</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.762398844257038</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7659731574612536</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7694769259392527</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7728790988776287</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7761544497446782</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7792832655442238</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7822509604797157</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7850476364024057</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7876676093677217</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7901089187892996</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7923728330631724</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7944633631357312</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7963867933060167</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7981512365810969</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7997662201363909</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8012423048632972</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8025907416060204</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8038231654892406</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8049513287090221</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8059802049596451</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8069279535936266</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8078053932730945</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8086229609717861</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8093904026681132</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8101166561169867</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5429337576904985</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5393730596221102</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5370753402984849</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5358960744844434</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5356914666698946</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5363214936156666</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5376521983908397</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.539557468348843</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5419203299663767</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5446338225816538</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5476015086176012</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5507376752926734</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5539672789691445</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5572256790962045</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5604582043881755</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5636195895757271</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5666733168442032</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5695908919651823</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5723510811656679</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5749391309960162</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5773459898870006</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5795675467611625</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5816038990116342</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5834586594024218</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5851383089874843</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5866516009916818</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5880090187359187</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5892222891057801</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5903039517371231</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5912669830001841</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.592124472981658</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5928893529681113</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5935741704016065</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5941909078888938</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5947508425803051</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5952644420768716</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5957412929591687</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.596186831063152</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5966119325096876</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5970234936274543</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.597427463348396</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5978288436400172</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5982317943257912</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6436670263540993</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6249105416808338</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6091333354683611</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5962430224120906</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5860936788143336</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5784997804663413</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5732480771817803</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5701077301388247</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5688388345193061</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5691994868550407</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5709515505523353</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5738652650052067</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.577722832939352</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.582321109649668</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5874735075868784</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.5930112206594116</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5987838645753853</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6046596222976838</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6105249769227724</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.616284107766752</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6218580189796791</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6271834635302452</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6322117189021753</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6369072643695833</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.64124640335012</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6452158681619359</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6488114386193176</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6520366003651844</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6549012637117551</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6574205590801965</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6596137209154659</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6615030682086417</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6631130864791804</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.664469613238411</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6655991265517757</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6665281343152654</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6672826602328765</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6678912764133551</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6683739203352632</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6687534222373271</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6690508104145977</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6692851242794846</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6694734483213002</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.684409828856364</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6747502048122088</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6667736118290698</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.660389381974698</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.655487555077873</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6519448586928273</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6496298285767305</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6484071391808247</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6481412000370916</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.648699085907503</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6499528703392815</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6517814307230159</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6540717893959288</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6567200509536275</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6596319913644606</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6627233500251007</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.665919871655111</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6691571408994736</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6723802486508388</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.675543325376408</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6786089731134407</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6815476242781553</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6843368520280965</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6869606536508699</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6894087253493583</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6916757438802049</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6937606677985706</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.6956660685812764</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.697397499648908</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6989629092856603</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7003721016591982</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7016362485636302</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7027674531366523</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7037783656255135</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7046818502834965</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.705490701656701</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7062174078575066</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7068730005741143</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7074697721427957</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7080183550076099</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7085285843295736</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7090093553772865</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7094686106727368</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6612560585743327</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6567025144683826</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6534544850136584</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6514404354315808</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6505663811063367</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6507230123043839</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6517917304703974</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6536496462226977</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6561736434811467</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6592436125999159</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6627449541742444</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6665704497458491</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.670621588474769</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6748094310455611</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6790550843090485</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.6832898527544746</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.6874551259797104</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6915020548854861</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.695391063323453</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6990912363296998</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7025796208388718</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7058404698795284</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7088644566935036</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7116478810044007</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7141918857897328</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7165016993928212</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7185859146450241</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7204558138510433</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7221247460089278</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7236075604760946</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7249200994337535</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7260787499229502</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7271000549034236</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7280003816991019</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.728795645319321</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7295010834618382</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7301310794924528</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7306973806817778</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7312140282343027</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7316921856752352</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7321419801787724</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7325723488234055</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7329910398322776</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6276182106082148</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6166331646159342</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6084233573526033</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6028654045938999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5997805341840122</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5989508448712763</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6001331931435112</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6030707290041596</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6075023479005173</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6131702951729203</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.619826150718768</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6272354040428338</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6351808110519559</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6434647054569556</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6519104205438809</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.6603629616801697</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.6686890561314873</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.6767766942944976</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6845342649750759</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.6918893765852869</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.6987874459072697</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7051901262796161</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7110736376783978</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.716427052218675</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7212505801488318</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.725553893513012</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7293545173733376</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7326763118555945</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7355480623330916</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7380021897980646</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7400735888764021</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7417985969943228</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7432140948698633</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7443567357360835</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7452622984613289</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7459651579675504</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7464978650130909</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7468927541590689</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7471756791013577</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7473724936771321</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7475064197220439</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7475980067411393</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7476651202170306</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.270127816519709</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.27250647508133</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.274490192667505</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.276211535346335</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.277783947566881</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.279302529024923</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.280845314119979</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.282474698103361</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.284238949116559</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.286173736567762</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.288303629868309</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.290643536600317</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.29320006103317</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.295972772494338</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.298955379015621</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.302136805457768</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.305502177501303</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.30903371397053</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.312711530350716</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.316514356396998</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.320420170657332</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.324406754694828</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.328452169877565</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.332535159830501</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.336635481998366</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.340734172210611</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.344813746619106</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.348858345845137</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.352853826579499</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.356787806193516</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.360649666116968</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.364430519810243</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.368123151102144</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.371721928489717</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.375222700716598</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.378622678579872</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.381920307482885</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.385037088528096</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.388052799356874</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.390968950821439</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.393787376069465</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.39651059116965</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.399141611798727</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9875965574948107</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9906771480346412</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9932403541432031</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9954041042499511</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.9972734151198409</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9989402015473861</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.000483629919436</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.001970702029815</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.00345701039834</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.004987597494896</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.006597870836792</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.008314538859542</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.010156542947883</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.012135968851841</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.014258926312633</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.016526389500233</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.01893499325907</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.021477781587281</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.024144905599174</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.026924268726934</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.029802117313184</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.032763575162199</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.035793121121553</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.038875009375383</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.041993632828436</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.045133830709861</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.048281142281868</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.051422009255736</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.054543930157459</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.057635570417832</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.060686832368388</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.063688889596838</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.066634190254232</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.069516433919244</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.072330526526062</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.075072517668427</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.077739524322047</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.08026447903194</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.082712541231325</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.08508365348377</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.087378067654072</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.089596742837004</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.09174117879549</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8818749085319351</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8841356922792658</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8854003053299148</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8858864506719348</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8857904988044408</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8852868852803412</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8845282082329929</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8836458015419781</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8827506672260043</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8819346643604505</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8812718733660512</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8808200714521334</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8806222688929312</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8807082668033639</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.881096205592247</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8817940797746406</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8828011997940249</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8841095853693584</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.885705278000402</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8875695629107749</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8896800930715529</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.892011910143335</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.894538359255994</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.8972318965237049</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9000647900515971</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9030097168988011</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9060402599867569</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9091313102513409</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9122593804112071</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9154028375517325</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9185420623039873</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9216595427409092</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9247399112359802</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9277699324569542</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9307384504260314</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9336363021978633</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9364562052175917</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9391255846994555</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9417086906412209</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9442030319098476</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.946607203104293</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.948921005752096</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9511452590899493</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.646837756388536</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.647768747609054</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6480758547176907</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6479162893302058</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6474303903350962</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.646741383108059</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6459556295240728</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6451632270975346</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6444388647071588</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6438428572388789</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6434222971525684</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6432122739248809</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.643237123025131</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6435116746838216</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6440424794831787</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.644828993049506</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6458647061840534</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6471382099367805</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6486341876664192</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6503343282452807</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6522181564055215</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6542637778792878</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.656448538509208</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6587495979166117</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6611444196097538</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6636111805788185</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6661291044402082</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6686787230429135</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6712420721230543</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.673802827084224</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.676346385293529</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6788599014252819</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6813322823706844</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6837541480811085</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6861177644458073</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6884169539443465</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6906469893818747</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6927491767044901</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6947775619764783</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6967310406894311</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6986092912397136</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.700412859480712</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7021430198152439</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05130270655910012</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05244982011836698</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05352938960543496</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05456236584430357</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05556750025869795</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05656099932980931</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.05755644597161266</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05856481190237763</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.05959455677510964</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06065178975404065</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06174047411786199</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06286265817485677</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06401871895662845</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0652076081663264</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06642709253565118</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06767398299141182</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.06894434882979515</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.07023371447957691</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.07153723746772606</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.07284986695543415</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.07416648275968613</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.07548201517464254</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.07679154620432589</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.07809039304585974</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.07937417484152393</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08063886385996169</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08188082237764677</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08309682661324151</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.0842840791201909</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.08544021106695859</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.0865632758304484</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.08765173529801448</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.08870444021960791</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.08972060587742273</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09069978424976759</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09164183374291476</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09254688745346726</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09338206295413704</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09418184103512126</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09494696878246882</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09567824202759297</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.0963766394097752</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09704324335151773</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8726030085036885</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8746007522592083</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8756941651730523</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8760505967418801</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8758278481787228</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8751718562950838</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8742151602719062</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8730760363579236</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8718581574111229</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8706506637668554</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8695285514267163</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8685533011457172</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8677736865390622</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8672267110612527</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.866938632930102</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8669260442054999</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8671969757548681</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8677520041899452</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8685853404252415</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8696858825845445</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.871038218776258</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8726235678972194</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.874420649167294</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8764064735537034</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8785570525934723</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8808480223270998</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8832551820749318</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8857549495822546</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8883247356017399</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8909432422561221</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8935906905255607</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8962489829396663</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8989018080394133</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.901534693431737</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9041350143166914</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9066919642533765</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9091964946767868</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9115823419768363</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9139036681635292</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.916156027410158</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9183361736306732</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9204421039582045</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.92247292332786</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8726030085036885</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8746007522592083</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8756941651730523</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8760505967418801</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8758278481787228</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8751718562950838</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8742151602719062</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8730760363579236</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8718581574111229</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8706506637668554</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8695285514267163</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8685533011457172</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8677736865390622</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8672267110612527</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.866938632930102</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8669260442054999</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8671969757548681</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8677520041899452</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8685853404252415</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8696858825845445</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.871038218776258</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8726235678972194</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.874420649167294</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8764064735537034</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8785570525934723</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8808480223270998</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8832551820749318</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8857549495822546</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8883247356017399</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8909432422561221</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8935906905255607</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8962489829396663</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8989018080394133</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.901534693431737</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9041350143166914</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9066919642533765</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9091964946767868</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9115823419768363</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9139036681635292</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.916156027410158</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9183361736306732</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9204421039582045</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.92247292332786</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.117032173489529</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.123808150900647</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.128950311450144</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.132762154779414</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.135516627004527</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.137456268093518</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.138794070087092</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.139714752341886</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.140376342149571</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.140911956777094</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.14143170848872</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.142024672714415</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.142760874332081</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.143693258190619</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.14485961816449</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.146284464855011</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.147980816177705</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.149951898060791</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.152192744781179</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.154691690415956</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.157431744710028</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.16039184847632</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.163548005498825</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.166874289791404</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.170343728933669</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.173929066001182</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.177603404269767</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.181340740349438</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.185116392651148</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.188907333083223</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.192692430602702</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.196452615712678</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.200170975213704</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.203832786508119</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.207425500548927</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.210938682151456</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.214363915879324</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.217613855403053</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.22076608512518</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.223817284365342</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.226765504057173</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.229610173171418</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.232351876650355</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1855564055266418</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1845349143324576</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1834081892306492</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1822403518469591</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1810879202958834</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1799994795518099</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1790155999571199</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1781690092605119</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1774849522473446</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1769816888381665</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1766710878433108</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1765592807446406</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1766473463729458</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1769320031545669</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1774062906211583</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1780602261170685</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1788814261584852</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1798556847886158</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1809675036365856</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1822005703235473</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1835381834538759</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.184963623751248</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1864604720003776</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.188012875371358</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1896057644589838</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1912250239798377</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1928576205459498</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1944916912837966</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1961165972992227</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1977229461111751</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1993025871999142</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2008485847499328</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.202355171526547</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.203817687621106</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2052325075461795</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2065969588717848</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2079092352788088</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2091288225406426</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2102956051169624</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2114097640615084</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2124719715048881</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2134833349126656</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2144453367576386</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.0062877567483</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.008992473016652</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.011299266404122</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.013312855503631</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.015125546251569</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.016817130794583</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.018455314501431</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.020096357941639</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.021785875179641</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.023559721850845</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.025444925863369</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.027460626557777</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.02961899873388</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.031926145913184</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.034382952922493</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.036985891749697</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.039727777063236</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.04259846921385</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.045585523314465</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.04867478341533</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.051850921073627</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.055097917900943</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.058399492034982</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.06173946894875</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.065102097570459</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.068472313307624</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.07183595020652</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.075179905089238</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.078492257056705</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.08176234619717</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.0849808156766</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.088139621600924</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.091232015129938</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.094252501296397</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.097196778853842</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.100061665259386</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.102845010610856</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.105476548343681</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.108026078018595</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.110494094107686</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.112881379092421</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.115189372286815</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.117420000128536</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8802910656319431</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8795735625020877</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8795409735990157</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8801081144239472</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8811974116207585</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8827380069099264</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8846652231863212</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8869201362678397</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.889449227825711</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8922040837953699</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8951411149924056</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8982212846842965</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9014098347146969</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.904676007003666</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9079927609269502</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9113364893471945</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9146867371601102</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9180259264070779</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9213390915783597</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9246136279489419</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9278390548670244</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9310067950125748</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9341099698635887</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9371432110048623</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9401024865029878</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9429849413390654</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9457887508073406</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9485129858159761</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9511574891269698</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.953722761711177</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9562098585434048</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9586202933011331</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9609559515454001</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9632190120472328</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9654118759761969</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9675371036915901</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9695973588761577</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9715407840961714</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9734250900743836</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9752536162203678</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9770288331040411</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9787532040984072</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9804291244093155</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9127948401417929</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9047411296675432</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.898432111506187</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.8938608681627969</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.8909750570057898</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.8896871504650934</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8898833790005131</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.8914314877895309</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.8941873750802179</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.8980006986870429</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9027195407339178</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9081942208264447</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9142803454101293</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.920841177463642</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.927749406517516</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9348883945751931</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9421529689484948</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9494498283238946</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9566976235517861</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9638267697140257</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9707790410143208</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.9775069950100577</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9839732677323173</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9901497763936125</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9960168617238083</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.001562397555525</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.00678089113874</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.011672593824269</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.016242638229448</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.020500214789037</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.024457797696205</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.028130427643624</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.031535056472096</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.034689956811147</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.037614198039368</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.040327188388316</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.042848281748481</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.045134615673396</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.047267629393883</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.049264605744736</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.051142013875994</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.052915118665344</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.054597918616039</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.091079222772132</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.076788063279441</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.065195351808498</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.056178910995345</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.049582033897505</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.045222864018031</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.04290255014758</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.042412293876665</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.043539339626609</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.046071984023162</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.049803686216776</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.05453636242086</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.060082946895715</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.066269299280481</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.072935535177287</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.079936853486407</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.087143930255394</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.094442944747964</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.10173529906711</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.108937088015552</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.115978371010698</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.122802292879386</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.129364095339</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.135630056023068</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.141576387116761</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.147188121099629</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.152458006799532</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.157385434975386</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.161975408984617</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.16623757275948</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.170185305312403</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.173834888306095</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.177204750848273</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.180314793590818</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.183185792415208</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.185838880456158</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.188295105938732</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.190519072796898</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.192587695838082</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.194519841228783</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.196333232680433</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.198044234724384</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.199667805980372</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8271073907122344</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8180200441915871</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.809942570335475</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8029200001460476</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7969702449286631</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7920880684313982</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7882487571578304</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7854116111187748</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7835231876745368</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.782520272034538</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7823325593332028</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7828850434693483</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7841001152592769</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7858993779935886</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7882051926284642</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.790941967885448</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7940372126825089</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.797422369726635</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8010334498912104</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8048114872912985</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8087028348561411</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8126593197681308</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8166382774657611</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8206024820558764</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8245199899962675</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8283639128303957</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8321121336096093</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8357469804458024</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8392548694157255</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.842625927801274</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8458536074111864</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.848934296501567</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8518669376084987</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8546526574388538</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8572944138479566</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8597966638770729</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8621650558404604</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8643517238013241</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8664196867609764</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.868376157103003</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8702289954141771</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8719860781540555</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8736552132634757</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4640599535998838</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4503098004605829</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4386152467837978</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4289048705204645</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4210800071009119</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4150214172379382</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4105949393759134</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4076564973912706</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4060564463141346</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4056432988329527</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4062668732902987</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4077809058981104</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4100451699922225</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4129271449033425</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4163032766609939</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4200598723261367</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4240936691860052</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4283121192281923</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4326334281477828</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4369863865836449</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4413100293287202</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4455531559556376</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4496737437122846</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4536382807552447</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4574210448879144</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4610033500346219</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4643727797812659</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4675224245030184</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4704501359234474</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4731578104380595</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4756507102096653</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4779368289160051</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4800263071082734</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.481930900424384</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4836635023911808</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4852377222406855</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4866675170499432</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4879320325351366</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4890809013781805</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4901270823031477</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.491083354632032</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4919616484433443</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4927730428707889</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3752450852413416</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3770425818920385</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3787199704832351</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3802542908150341</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.381629519324291</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3828357389198775</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3838683834318059</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3847275041552934</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3854170640338931</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3859442609693776</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3863188851838484</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3865527165754698</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3866589680665793</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3866517801944386</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3865457709235202</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3863556431002212</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3860958503248076</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3857803204349977</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3854222343898056</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3850338571786012</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3846264164907588</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3842100242695196</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3837936359228463</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3833850418436244</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3829908859636258</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3826167062897267</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3822669927074937</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3819452577503889</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.381654116491248</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3813953721905139</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3811701048125056</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3809787599813866</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3808212363814856</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3806969700050712</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3806050140104339</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3805441132724796</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3805127729870574</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3805214955467512</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3805561651341808</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3806148209660937</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3806955667815921</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3807965226967879</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3809158407464224</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.177672307161436</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165521795067243</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.155883772832887</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.14868893839855</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.143821134475362</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.141128755192612</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.140434721536415</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.141545116844084</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.144256552597469</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.148362359929448</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.153657707035682</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159943743825838</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.167030873241375</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.174741245290047</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.182910565702659</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.191389306533595</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.200043401118584</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.208754500603506</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.217419863787957</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.225951946329279</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.23427774949776</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.242337982753958</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.250086088535748</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.257487171893648</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.264516872083611</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.271160207984078</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.277410424296589</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.283267860946123</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.288738863932501</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.293834752099882</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.298570850881444</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.302965601029457</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.30703974764301</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.310815612440952</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.314316450180074</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.317565888371633</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.320587447986303</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.323331866016788</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.325895124716432</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.328298176613295</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.330560818737741</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.332701409938483</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.334736757343123</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.6931205353773644</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6726117547385468</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6539154958401643</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6370686850046589</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6220757531282268</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6089128448326738</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5975316926395867</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5878635038354687</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5798227147559574</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5733105561741849</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5682183838787394</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5644307427989639</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5618281435129201</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5602895386917469</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5596944944615794</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5599250581016221</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5608673290587325</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5624127449769464</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5644590983197088</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5669113022131491</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5696819263900824</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5726915256180456</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.575868783820452</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5791504973296348</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5824814204309152</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5858139956542711</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5891079902265377</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5923300587874227</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.595453250964295</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5984564807531475</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6013239729184493</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6040446998482342</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6066118205221017</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6090221315028428</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6112755381760202</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6133745528602308</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6153238249134299</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6170945420568623</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6187307247541964</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6202404911607489</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6216330961965655</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6229180856691116</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.624105167666652</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8878355798119604</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8799149050809119</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8721680433344318</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8648850872762485</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8582850409337619</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8525252488014443</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8477101516483525</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8438993885112273</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8411152065865888</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8393491767155127</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8385682277019753</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8387200233868385</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.83973771273169</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8415440869116382</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8440551796074325</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8471833479653061</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.850839872407794</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8549371137982087</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8593902664503856</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8641187451502966</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.869047243719166</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8741065017037577</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8792338145436853</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8843733210638787</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8894761004069701</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8945001085946207</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8994099828297071</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9041767394633804</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9087773892908843</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9131944915435986</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9174156656451629</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9214330775270276</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9252429150808076</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.928844865186229</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.932241602716126</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9354383000027996</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9384421634687841</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9411982320837897</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9437823409597779</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9462044739326623</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9484760027028737</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9506085932296744</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9526139305702863</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.08006568045671746</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06733386020819306</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.0565407430846046</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.04757319343346157</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.04030541178044456</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03460302290203643</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.03032645516574661</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02733394024969664</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02548411131919884</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02463822552629016</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02466203170170779</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02542730465864385</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02681306762068264</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02870652487213602</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.0310037276517436</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03360999737811934</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03644013127429793</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.0394184161498426</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.04247847636530698</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04556298177822284</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.04862324074760163</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05161870209843543</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05451638839324265</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05729028101439446</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.05992067552190575</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06239352360412014</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06469977575975977</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06683473670221005</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06879744340996619</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.07059007379735234</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07221739217233976</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07368623599979661</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.075005047007728</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07618344836432363</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07723186851384466</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07816121128519685</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07898257107156013</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07968046844529038</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.08029293830041301</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.08083017992229731</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.08130207882870596</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.08171781339373548</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08208586519923647</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7542037153661423</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7411068239646756</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7311548930462254</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7240927623455976</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7196489202962396</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7175438360264967</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7174968464219187</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7192318934186459</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7224821796549206</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7269938518553115</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7325288142941314</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7388667706705176</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7458065874534043</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7531670665328608</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7607872099569069</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7685260545850295</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7762621495031794</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7838927438888886</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7913327476197796</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7985135212857678</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8053815464562607</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8118970211690744</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8180324197652573</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8237710505096997</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8291056390130762</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8340369603865286</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8385725383726976</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8427254254386344</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8465130740016019</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8499563055862562</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8530783817686299</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8559041782287478</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8584594610852484</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8607702628955028</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8628623542458285</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8647608057009568</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8664896340025259</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8680238898937653</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8694331301470143</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8707370510866762</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8719534243037493</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8730981480207356</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8741853088171508</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7151407295555293</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6992866182944125</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6879030462226762</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6804854786308874</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6765415437836105</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6755977262049092</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6772045443309</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6809405046865721</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.686414947477422</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6932699197044636</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7011811996475527</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7098585876460237</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7190455696689969</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7285184528186448</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.738085065322977</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.747583107350314</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7568782327481128</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7658619353303954</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7744493065100414</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7825767239190742</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7901995232955082</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7972896985022502</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8038336672589904</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8098301331768989</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8152880681245996</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8202248329226922</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8246644489264876</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8286360282429407</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8321723661411655</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8353086956391889</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8380816012514731</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8405280864223972</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8426847872058408</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8445873232342874</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8462697759065708</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8477642829669843</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8491007382071557</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8502607312791709</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8513154822244047</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8522877110294478</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8531971273481955</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8540607710320787</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8548931964887859</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_9.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_9.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3212739963772344</v>
+        <v>-0.2250718607779158</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3260277978606521</v>
+        <v>-0.3042742479111624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2128808295607601</v>
+        <v>-0.4387633823875903</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1974451442080811</v>
+        <v>-0.3666699275062994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1522493774985754</v>
+        <v>-0.5009261959971308</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1305808780685744</v>
+        <v>-0.4474214250777439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05888648753883746</v>
+        <v>-0.1530744787944337</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08640099787666576</v>
+        <v>-0.2200429065265428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1398980287104931</v>
+        <v>-0.1657178361506949</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1271961316647943</v>
+        <v>-0.1443424340210184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4454694716655577</v>
+        <v>-0.2963440572473632</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.462073158579521</v>
+        <v>-0.3006785005963426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3034768971427516</v>
+        <v>-0.5278915093624672</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2715765964713239</v>
+        <v>-0.4167639099711564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4101598582772835</v>
+        <v>-0.5627393231283633</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4213748423931841</v>
+        <v>-0.4622878142841325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3112044355194573</v>
+        <v>-0.4968082027901717</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3436617211573456</v>
+        <v>-0.2803444740328301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2093357274128496</v>
+        <v>-0.2914590922241845</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2483358651284864</v>
+        <v>-0.298744234038695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1098701227570322</v>
+        <v>-0.2314086778818056</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1094783026168914</v>
+        <v>-0.1990670213938235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.003463128644148341</v>
+        <v>-0.04773324398888493</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01157867802692844</v>
+        <v>-0.07393797950775674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.004988279649559266</v>
+        <v>-0.2939329335286706</v>
       </c>
       <c r="B14" t="n">
-        <v>0.011889263515418</v>
+        <v>-0.2169967485155734</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1346304142550902</v>
+        <v>-0.1430035065739936</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05801708454880922</v>
+        <v>-0.04406473220843669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1946543047594123</v>
+        <v>-0.1893388278177911</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2861528088080422</v>
+        <v>-0.07991983670123821</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5361399697844117</v>
+        <v>0.05951402412171154</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5627694800712454</v>
+        <v>0.1387323640026155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07686059177154655</v>
+        <v>0.03708600989497735</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0509146135411717</v>
+        <v>0.05239589056464296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3878380745545058</v>
+        <v>0.06069684514083785</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3801368142500762</v>
+        <v>0.1007067326617474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.175159032581152</v>
+        <v>-0.1572175032763125</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2357545280472422</v>
+        <v>-0.08198769250113755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3657810210011677</v>
+        <v>-0.003509973189657789</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4612034855031213</v>
+        <v>0.0382361029445268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3068546660630183</v>
+        <v>0.03161691759604291</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3407779426971171</v>
+        <v>0.1086412327525411</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1051463010812712</v>
+        <v>-0.006455082552080424</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09213597395040349</v>
+        <v>0.02083511503494362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.412480150295193</v>
+        <v>0.8134419455026002</v>
       </c>
       <c r="B24" t="n">
-        <v>4.536142022674653</v>
+        <v>0.6275414214716868</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5718574215482422</v>
+        <v>0.1250648350631644</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5264117600795265</v>
+        <v>0.09369898545125437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.343724671523465</v>
+        <v>0.1411182489151249</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3854558869822713</v>
+        <v>0.1277892020732319</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3214782735169204</v>
+        <v>0.09688272276242904</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3323569593629884</v>
+        <v>0.1094231370355884</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.091561350014913</v>
+        <v>0.3134806690642843</v>
       </c>
       <c r="B28" t="n">
-        <v>1.099255200858447</v>
+        <v>0.1994971955143899</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.274466777397112</v>
+        <v>0.6787123820577274</v>
       </c>
       <c r="B29" t="n">
-        <v>5.868063101441583</v>
+        <v>0.5500951161456252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.01500490280038</v>
+        <v>0.2093280834551174</v>
       </c>
       <c r="B30" t="n">
-        <v>1.019959663470545</v>
+        <v>0.1693179181437547</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.09797031706436504</v>
+        <v>0.01527400927096381</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1327971309754888</v>
+        <v>0.03363750468044523</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8197181365212921</v>
+        <v>0.181117137605032</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8129124910470404</v>
+        <v>0.1816233813767025</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9266127304940774</v>
+        <v>0.1181998612117385</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9408763627916946</v>
+        <v>0.130918521061543</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.5760389076467637</v>
+        <v>0.08767057010953486</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6237788977627812</v>
+        <v>0.05295205450232404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.842250162148514</v>
+        <v>0.4354695729439043</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8227024093626152</v>
+        <v>0.2888409977143332</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8025676706029488</v>
+        <v>0.2912862454769364</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7852006021171384</v>
+        <v>0.1533495673690221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7919951671094189</v>
+        <v>0.05039469239145366</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7616093557509258</v>
+        <v>-0.0064213426474793</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7836800664035825</v>
+        <v>0.3449913081183461</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7364618531331382</v>
+        <v>0.2993136825837875</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5861641145943091</v>
+        <v>-0.08949323932445991</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5854033188892174</v>
+        <v>-0.1543204714276162</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7549809120686657</v>
+        <v>0.1644700705108344</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7554000423666646</v>
+        <v>0.1810125953524771</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5828601459212053</v>
+        <v>-0.1659332337896862</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5625794058477487</v>
+        <v>-0.1951428843044119</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7529021482474625</v>
+        <v>0.2550643703135704</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7176215966072691</v>
+        <v>0.2531039654461633</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7504465520349173</v>
+        <v>0.1670444740067412</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7239792128051638</v>
+        <v>0.1673087483328268</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6827308104255141</v>
+        <v>-0.1037455053460379</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6829484627113083</v>
+        <v>-0.08646426511031464</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6807129122400349</v>
+        <v>-0.104794556577724</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6771656920013283</v>
+        <v>-0.08798903293491311</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.245763269047405</v>
+        <v>-0.1925971413069253</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.25897553861914</v>
+        <v>-0.1761233106356346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9621471412418766</v>
+        <v>-0.1900851859062858</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9738671067461906</v>
+        <v>-0.1758569071786635</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8529273727102373</v>
+        <v>-0.2281306172181959</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8666450125273316</v>
+        <v>-0.2028629821515599</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.625756617875225</v>
+        <v>-0.2203072234534432</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6384770605229276</v>
+        <v>-0.2004981598542138</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.04836745703310415</v>
+        <v>-0.1494051867186948</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04719667975478657</v>
+        <v>-0.1368666296624268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8436953902240095</v>
+        <v>-0.2130587950665102</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8594604294715984</v>
+        <v>-0.2213222295619814</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8436953902240095</v>
+        <v>-0.2130587950665102</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8594604294715984</v>
+        <v>-0.2213222295619814</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.05950699879933</v>
+        <v>-0.2040477838392285</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.083426097556684</v>
+        <v>-0.1859288231682639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1868921411768124</v>
+        <v>-0.2095204110480183</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1872636393394086</v>
+        <v>-0.1994429908687647</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.9848389556038206</v>
+        <v>-0.1720922102463877</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9945094100735348</v>
+        <v>-0.1490445105651763</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8986093529239618</v>
+        <v>-0.1587711423644652</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.887447096790594</v>
+        <v>-0.1409908660108635</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9838841944156161</v>
+        <v>-0.1972692006844608</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9465834676324881</v>
+        <v>-0.155633558866462</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.198553592684402</v>
+        <v>-0.1813738256061986</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.150642723629216</v>
+        <v>-0.213516391298937</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8871941031562842</v>
+        <v>-0.2222151474455981</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8595943936850527</v>
+        <v>-0.2355574678922932</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5490228879802185</v>
+        <v>-0.2095247580315729</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5178421633847863</v>
+        <v>-0.2389769316631077</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3641879669695625</v>
+        <v>-0.2722358043226074</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3694990498946619</v>
+        <v>-0.229451432604436</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.281473782537221</v>
+        <v>-0.1606000546365942</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.228845839492119</v>
+        <v>-0.1007039242574877</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7955077467720582</v>
+        <v>-0.3529740683774172</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7647483462113032</v>
+        <v>-0.4020249240780268</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9059538388620895</v>
+        <v>-0.2577263942527296</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9085383082165912</v>
+        <v>-0.2638823367836596</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1683097252499538</v>
+        <v>-0.1998195694491312</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1307796336478854</v>
+        <v>-0.2303599148437729</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8688143494053152</v>
+        <v>-0.120372322293627</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8143641485938967</v>
+        <v>-0.09740285784665913</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.887765658163096</v>
+        <v>-0.06217892092423713</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7944889528103205</v>
+        <v>-0.05586642611577743</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_9.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.2250718607779158</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3042742479111624</v>
+        <v>-21.20684500415437</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1380.111649361679</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-84713.5307838655</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4867114.097664606</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-249383880.3187645</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-15743164348.99954</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-886734745909.0637</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-47120502549590.55</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2155190245661728</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-7.342717490684384e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-8.997843077641585e+17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.198097308385505e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.689996879782522e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.684483013872321e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.40608906468186e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.055015625350128e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.553457671387909e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.394157218322967e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4387633823875903</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3666699275062994</v>
+        <v>-43.38482214551289</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4121.731399842883</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-344387.3013809596</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-27159661.04259487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2044766646.41021</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-189765326144.7459</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-14964614860896.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1059074046225340</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-5.242450417527862e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.45226613938239e+17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.732915083794471e+20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.111187888033538e+23</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.478188905862645e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.858932234910977e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.190107271633784e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.440068180809321e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.644071822661211e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.868549649183271e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.5009261959971308</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4474214250777439</v>
+        <v>-40.35317790818235</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3356.78647772542</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-249895.6565167657</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-19203148.13894609</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1616030965.550928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-145083086531.2123</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11818016039050.55</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-934395581405037.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-6.963599400057087e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.77446693430847e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.1098945325208e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.081058870982952e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.394996514295802e+24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-8.39839966077182e+25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.805733606499539e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-3.031326041531044e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2.208080844941839e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-1.515039567147465e+33</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.1530744787944337</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2200429065265428</v>
+        <v>-21.56938620594916</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1956.661934528568</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-152775.5942749334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-12498956.36567157</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1141872103.816072</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-114521035050.936</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9810270221360.324</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-748155729799657.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.855426395804206e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.452839698995118e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-6.388124378292136e+19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.54223827150102e+21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.144383387493781e+24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.67494544822437e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.958317287353113e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.013143342607639e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.956929029437729e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.900334813604497e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1657178361506949</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1443424340210184</v>
+        <v>0.8676817139173929</v>
+      </c>
+      <c r="C6" t="n">
+        <v>234.1751797147355</v>
+      </c>
+      <c r="D6" t="n">
+        <v>58354.82248098568</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6065965.580074856</v>
+      </c>
+      <c r="F6" t="n">
+        <v>292021764.1065651</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8333091938.100266</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-142573627917.6963</v>
+      </c>
+      <c r="I6" t="n">
+        <v>632998844510.3125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9353193709847128</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.041108499391739e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.301814018156098e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.589015062971561e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.761561517354956e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.823278014403108e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.546668064758761e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.878769428978922e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.999592875682017e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.131709418411814e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.2963440572473632</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3006785005963426</v>
+        <v>-17.11226946647968</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1010.582187575772</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-55351.51916046664</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3121038.865763794</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-183465147.1394826</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-12440501738.57741</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-715332309313.2036</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-36252478977206.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1578731718528890</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-5.372931904991127e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1.012081204344746e+18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.271017201717284e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.387891287785626e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.502021416083514e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.236233709323215e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.716050789524744e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.498572046425463e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.673756602236741e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.5278915093624672</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4167639099711564</v>
+        <v>-30.8549995930852</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2058.010999275459</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-126560.6121398744</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7938210.263106551</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-526736473.1954113</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-37832754303.1313</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2493945330107.638</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-164834817126793.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.015840241817011e+16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-5.558680629416214e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.7485279664801e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.338922135384096e+21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-5.90003518670759e+22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-1.059525517482943e+24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.491290008379848e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.505727062448702e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.797775752095347e+30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.85466247471269e+32</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.5627393231283633</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4622878142841325</v>
+        <v>-26.50993176334177</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1651.394356224724</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-95853.27003571446</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5484529.877210659</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-308831385.2539306</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-19518609543.59244</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1093689298446.187</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-57769178192072.82</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2683866618904214</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-9.556137235337085e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1.528560264230711e+18</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.269505856817329e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.040529012131596e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.10697140610316e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.782496946749071e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.342848403071449e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.614388785897334e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.869836525334274e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.4968082027901717</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2803444740328301</v>
+        <v>-50.12303822119175</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5988.046738946916</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-603849.1126451666</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-54363404.53091261</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4606456501.263291</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-499328292581.4327</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-49332993488437.59</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4811782699078379</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-4.391522243466038e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-3.527935596296381e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2.383813806270999e+21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.19835799746091e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.479886348918992e+24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.845229328041055e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.495004256990455e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.734606913067184e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.640635465783423e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.702266597247967e+35</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2914590922241845</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.298744234038695</v>
+        <v>-20.91571582787878</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1364.778691417161</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-79108.86909442081</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4595227.33366665</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-288861180.8391181</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-20363570828.4726</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1243233994212.126</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-68503893277310.19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3335173686943576</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.352811441665666e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.190203662517745e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-7.703853968030656e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.297378224701056e+21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8.878519907533468e+23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.039295553420174e+25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.369556522055584e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.531929427245467e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.114583372698456e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.2314086778818056</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1990670213938235</v>
+        <v>-22.28049967570676</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1475.107539717345</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-83831.55514190042</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4605372.332567089</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-265812899.4030427</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-17979840628.33117</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1041826066472.972</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-53650317825630.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2217422739231481</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-4.961413485385099e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.504009976592863e+18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.473837710557317e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.46554164897819e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.921166380933553e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.096150235486799e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.259743056344743e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.589005601786414e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.1180929560445e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>-0.04773324398888493</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.07393797950775674</v>
+        <v>-5.372575891460901</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-644.2455834021567</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-58354.54367475324</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5478326.319032985</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-540225760.0353277</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-47320318498.3285</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3424606919332.03</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-220996253295916.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.256878555008195e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-5.729606033268702e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.659467945301683e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.852252715617868e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.942033296011344e+22</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.449153902987832e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.563355105590693e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.454861014987727e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.274987117128219e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.111949312779531e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.2939329335286706</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2169967485155734</v>
+        <v>-16.59132865264326</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1024.63402031736</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-60096.14795473629</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3259933.756527248</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-175587754.4864298</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-9639270717.138996</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-430996045033.5171</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-16816940079652.21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-456911398137589.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.026533469322167e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.927490948757446e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.059697169337521e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.600514149267159e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.016402890495103e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.433488385848364e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.505340576193987e+27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.086742023923452e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.901326129224652e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.1430035065739936</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.04406473220843669</v>
+        <v>-7.631086193919208</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-413.9276858836519</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-21821.31060267552</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1079172.415365007</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-51003349.40681557</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2354631365.957091</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-86729384149.85303</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2641314899444.503</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-46063882059447.14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2108127291067421</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.042810462830483e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.316354959144082e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.49374035639011e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8.975146163723206e+22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.01269477246405e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.635913856777821e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.345193034869535e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.872894849953124e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.1893388278177911</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.07991983670123821</v>
+        <v>-10.80351942250589</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-530.8214188670172</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-25271.3694562852</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1124131.228092788</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-46592111.79330769</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1772327581.895623</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-57043911901.26752</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1713206296716.622</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-36183008172079.39</v>
+      </c>
+      <c r="K16" t="n">
+        <v>567446628760713</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.406374579455746e+17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.218617468118207e+19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.39815572079158e+20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.131340665077759e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.826012036576669e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.434095409327139e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.976488599022809e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.394564332399318e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>0.05951402412171154</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1387323640026155</v>
+        <v>-2.396566532727103</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-118.7123592852197</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4831.141842560635</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-66068.84725434991</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8638726.100329734</v>
+      </c>
+      <c r="G17" t="n">
+        <v>775652047.8571661</v>
+      </c>
+      <c r="H17" t="n">
+        <v>57568761191.98299</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3453491368072.088</v>
+      </c>
+      <c r="J17" t="n">
+        <v>187325487970808</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9758786758865952</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.912339069081951e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.404181763382258e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.156343722030401e+21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.540769994421346e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.64364294992619e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.258211321340021e+26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.991774121063752e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.858245668542869e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.03708600989497735</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05239589056464296</v>
+        <v>-1.526262055260035</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-258.1823339012653</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-22974.47779772175</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1209952.534288808</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-33020395.18156649</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1043624133.831663</v>
+      </c>
+      <c r="H18" t="n">
+        <v>44289426680.35413</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8523942408693.483</v>
+      </c>
+      <c r="J18" t="n">
+        <v>825023804004514</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.663197003541355e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.699267675998509e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.979764051862996e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.802722145652406e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.092159614942662e+24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6.610379436342561e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.000433363000829e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.426499626843874e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.475193126984755e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.06069684514083785</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1007067326617474</v>
+        <v>2.929533175650059</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.604706809001527</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5050.105522372609</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-477426.7000046018</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-42189143.2702239</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3402445292.194215</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-190960469601.5773</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-7923192591964.637</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-201152318916694.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3463884799755638</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.393300932534458e+17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8.363216185685821e+19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.062680380968498e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.135103921175328e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.626941829620737e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.570262856343726e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9.105576624857824e+28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.285557106823403e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.1572175032763125</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.08198769250113755</v>
+        <v>-8.900416646750749</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-379.7717118078618</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-17104.5278434369</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-736988.1222210306</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-29475895.12297917</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1064875207.847293</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-29561711760.32254</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-711436293407.9639</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-11210888585101.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>446030858796117.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.168523125071458e+16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.50458822059165e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.733718941306441e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.509303997208616e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.613228851577543e+23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.570089327508692e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.613610768971843e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7.298815195638239e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>-0.003509973189657789</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0382361029445268</v>
+        <v>-12.29668318483237</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-783.5659493974688</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-43523.67603183412</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2385107.933352171</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-141355444.8708205</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-6995572377.955813</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-310369171167.9853</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-14418153935211.51</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-620862739702729.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1.939369606809466e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.449046103860493e+17</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.22968453652558e+20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.466934724941676e+22</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.301376400004015e+24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.698716444209838e+25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.412773631052231e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.990786511340957e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.480904972591158e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>0.03161691759604291</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1086412327525411</v>
+        <v>0.2335734561987043</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25.19109567073961</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3089.592583185923</v>
+      </c>
+      <c r="E22" t="n">
+        <v>439893.6664845771</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40197624.50247145</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3547677068.366877</v>
+      </c>
+      <c r="H22" t="n">
+        <v>326773009400.7195</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25639711548200.58</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1866964722799996</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.333805215579371e+17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9.60716255549465e+18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.9862138385527e+20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.003038168300112e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.506059750692739e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.374415108231077e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.555673277101536e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.002258947051416e+30</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.466189056014138e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>-0.006455082552080424</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02083511503494362</v>
+        <v>-6.011240962037976</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-410.4699117244586</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-24228.2317039705</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1470796.238077738</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-105456678.8651376</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-6087657209.971952</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-218811579854.9516</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-2443286745652.936</v>
+      </c>
+      <c r="J23" t="n">
+        <v>537111472860776.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8.064519431583373e+16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.924748436989101e+18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.55354795132424e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.01870507813563e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.709886952143899e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.618628187135016e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.773841796898575e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.177561761791989e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7.828847810013535e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.8134419455026002</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6275414214716868</v>
+        <v>1.518180622578698</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.158947462960365</v>
+      </c>
+      <c r="D24" t="n">
+        <v>43.27096226254761</v>
+      </c>
+      <c r="E24" t="n">
+        <v>259.7760636910831</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1561.448708375969</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8257.939323845649</v>
+      </c>
+      <c r="H24" t="n">
+        <v>40646.77765242421</v>
+      </c>
+      <c r="I24" t="n">
+        <v>217891.5012756278</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1081404.485884129</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4070067.041043991</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10037365.10203473</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12029116.24430811</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-158840971.3338842</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-3304454045.546532</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-43940481923.20334</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-493094153658.5659</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-4925873367244.48</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-45278994597118.16</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1250648350631644</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09369898545125437</v>
+        <v>2.487468174870413</v>
+      </c>
+      <c r="C25" t="n">
+        <v>41.79688407618828</v>
+      </c>
+      <c r="D25" t="n">
+        <v>690.2659470310784</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14762.63386409073</v>
+      </c>
+      <c r="F25" t="n">
+        <v>391910.0626428692</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9086564.138633398</v>
+      </c>
+      <c r="H25" t="n">
+        <v>201639386.6549841</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4380647284.583679</v>
+      </c>
+      <c r="J25" t="n">
+        <v>93038678489.28381</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1942338887684.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>40168677035495.79</v>
+      </c>
+      <c r="M25" t="n">
+        <v>830029948385968.2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.716694215271328e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.595354105343903e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.825633846013595e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.787237844971895e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.199791357259172e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.884604151131234e+22</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.1411182489151249</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1277892020732319</v>
+        <v>2.424477051595435</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36.76521441933713</v>
+      </c>
+      <c r="D26" t="n">
+        <v>571.4971894057794</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9175.915571958121</v>
+      </c>
+      <c r="F26" t="n">
+        <v>150239.6828492269</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2538124.338091612</v>
+      </c>
+      <c r="H26" t="n">
+        <v>44228674.55373663</v>
+      </c>
+      <c r="I26" t="n">
+        <v>817133475.1894982</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15407093034.34174</v>
+      </c>
+      <c r="K26" t="n">
+        <v>287935941748.6442</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5291651452732.369</v>
+      </c>
+      <c r="M26" t="n">
+        <v>95240456691459.73</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1697653220815047</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.065211771160322e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.669685061398012e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.077085165472453e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.078703741122771e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.016253128539983e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.09688272276242904</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1094231370355884</v>
+        <v>2.038537835512829</v>
+      </c>
+      <c r="C27" t="n">
+        <v>28.49324114265843</v>
+      </c>
+      <c r="D27" t="n">
+        <v>397.5758205039098</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5720.408904881789</v>
+      </c>
+      <c r="F27" t="n">
+        <v>84866.11968524237</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1298564.83616357</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19942070.32257335</v>
+      </c>
+      <c r="I27" t="n">
+        <v>314666026.1995412</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4966318195.227633</v>
+      </c>
+      <c r="K27" t="n">
+        <v>77990206240.89922</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1226210463217.862</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19380722916196.48</v>
+      </c>
+      <c r="N27" t="n">
+        <v>307683425234693.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4934708903163686</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.059915234102557e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.342020532414865e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.258985433648936e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.804926700114807e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.3134806690642843</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1994971955143899</v>
+        <v>2.881695245502102</v>
+      </c>
+      <c r="C28" t="n">
+        <v>44.03286088829156</v>
+      </c>
+      <c r="D28" t="n">
+        <v>643.4220319094399</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10333.02274248852</v>
+      </c>
+      <c r="F28" t="n">
+        <v>186347.1255068284</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3106598.840495826</v>
+      </c>
+      <c r="H28" t="n">
+        <v>48576068.58417913</v>
+      </c>
+      <c r="I28" t="n">
+        <v>749371262.5317965</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10535612013.08901</v>
+      </c>
+      <c r="K28" t="n">
+        <v>132806335189.6825</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1532201354270.388</v>
+      </c>
+      <c r="M28" t="n">
+        <v>17718989636580.73</v>
+      </c>
+      <c r="N28" t="n">
+        <v>193598147452545.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1401626777980486</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-1241974028242032</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-2.554605712385839e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-6.20556021588132e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1.401510150786824e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.6787123820577274</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5500951161456252</v>
+        <v>1.881187594072455</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.94641256708404</v>
+      </c>
+      <c r="D29" t="n">
+        <v>58.98445620513561</v>
+      </c>
+      <c r="E29" t="n">
+        <v>349.8935768590768</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2369.07570036015</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14391.88528384115</v>
+      </c>
+      <c r="H29" t="n">
+        <v>88798.27513159555</v>
+      </c>
+      <c r="I29" t="n">
+        <v>585870.2930216704</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3687818.005431764</v>
+      </c>
+      <c r="K29" t="n">
+        <v>21614989.87219211</v>
+      </c>
+      <c r="L29" t="n">
+        <v>117081364.1434773</v>
+      </c>
+      <c r="M29" t="n">
+        <v>571365833.6754508</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2216047368.226814</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3630255631.726219</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-43286414752.52216</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-656940020313.9873</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-6538168765385.354</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-59560630753178.2</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2093280834551174</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1693179181437547</v>
+        <v>2.290088060872825</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28.06361678375747</v>
+      </c>
+      <c r="D30" t="n">
+        <v>315.5116583928772</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3867.8803118094</v>
+      </c>
+      <c r="F30" t="n">
+        <v>58521.39817897039</v>
+      </c>
+      <c r="G30" t="n">
+        <v>860562.895063569</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12625142.73182003</v>
+      </c>
+      <c r="I30" t="n">
+        <v>195938847.8218127</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3029936602.163273</v>
+      </c>
+      <c r="K30" t="n">
+        <v>45227006542.78159</v>
+      </c>
+      <c r="L30" t="n">
+        <v>645094045071.8826</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8716522161343.447</v>
+      </c>
+      <c r="N30" t="n">
+        <v>112217845629161.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1415417943122814</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.860102846201268e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.704258802817901e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.254838874337823e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6.729372539887942e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.01527400927096381</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03363750468044523</v>
+        <v>1.607752899472153</v>
+      </c>
+      <c r="C31" t="n">
+        <v>19.86195341360857</v>
+      </c>
+      <c r="D31" t="n">
+        <v>244.6009219187522</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3564.761609957337</v>
+      </c>
+      <c r="F31" t="n">
+        <v>57500.58297830648</v>
+      </c>
+      <c r="G31" t="n">
+        <v>884239.6457354774</v>
+      </c>
+      <c r="H31" t="n">
+        <v>14494518.49276119</v>
+      </c>
+      <c r="I31" t="n">
+        <v>247892599.1404179</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4266061383.138644</v>
+      </c>
+      <c r="K31" t="n">
+        <v>72570533343.87775</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1200868172469.071</v>
+      </c>
+      <c r="M31" t="n">
+        <v>19252300673523.23</v>
+      </c>
+      <c r="N31" t="n">
+        <v>305160354978817.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4881246685761975</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.914867585976411e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.30060770983012e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.152211506430397e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.560323398229352e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.181117137605032</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1816233813767025</v>
+        <v>3.297372609708623</v>
+      </c>
+      <c r="C32" t="n">
+        <v>61.53622463083454</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1192.131681977921</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23009.73316961318</v>
+      </c>
+      <c r="F32" t="n">
+        <v>419445.890179607</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7367128.672665135</v>
+      </c>
+      <c r="H32" t="n">
+        <v>129194263.7448761</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2608882689.390448</v>
+      </c>
+      <c r="J32" t="n">
+        <v>54657443013.93234</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1119504196874.649</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22398228388942.98</v>
+      </c>
+      <c r="M32" t="n">
+        <v>436839992448620.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8324653948372868</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.594081823917684e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.220004471002636e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>7.072735173399562e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.641192955362791e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.82029889290786e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1181998612117385</v>
       </c>
       <c r="B33" t="n">
-        <v>0.130918521061543</v>
+        <v>3.017630182986771</v>
+      </c>
+      <c r="C33" t="n">
+        <v>61.03801910050525</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1169.701353306466</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22698.02743905984</v>
+      </c>
+      <c r="F33" t="n">
+        <v>447699.2595820682</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8725008.154686812</v>
+      </c>
+      <c r="H33" t="n">
+        <v>167287696.7408009</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3695620435.69433</v>
+      </c>
+      <c r="J33" t="n">
+        <v>82421053462.09113</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1718736977280.753</v>
+      </c>
+      <c r="L33" t="n">
+        <v>32330244892579.55</v>
+      </c>
+      <c r="M33" t="n">
+        <v>501701092505895.7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4626158262162286</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-5.872841862063773e+16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-4.470231947104333e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.475987879949286e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.003569277410188e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.077046443516667e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.08767057010953486</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05295205450232404</v>
+        <v>2.558090475281445</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46.72726749590914</v>
+      </c>
+      <c r="D34" t="n">
+        <v>818.0167690993391</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15376.70011339256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>309551.1148393186</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6005030.6873543</v>
+      </c>
+      <c r="H34" t="n">
+        <v>138322575.0024799</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3547416245.439447</v>
+      </c>
+      <c r="J34" t="n">
+        <v>92080114693.04361</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2335431782824.526</v>
+      </c>
+      <c r="L34" t="n">
+        <v>56707700090499.99</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1313950127690018</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.986423055455853e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.828262849961338e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.570519926133064e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.630517190606996e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.413773984775976e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.948633552812821e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.4354695729439043</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2888409977143332</v>
+        <v>60.38811683458087</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9812.279451591137</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1607984.733555611</v>
+      </c>
+      <c r="E35" t="n">
+        <v>265074353.7168114</v>
+      </c>
+      <c r="F35" t="n">
+        <v>42006545749.25157</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6179191888167.864</v>
+      </c>
+      <c r="H35" t="n">
+        <v>760537971561609.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.10328123187755e+16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.079995469519107e+19</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.050409105053496e+21</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.721838929631343e+22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1.670501785431815e+24</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.933632646767167e+27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-5.702755513381634e+29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-1.217192025148929e+32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-2.175176535524794e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-3.572795173042217e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-5.851036115301141e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.2912862454769364</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1533495673690221</v>
+        <v>35.05487824818444</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5359.734970319651</v>
+      </c>
+      <c r="D36" t="n">
+        <v>799293.0767844379</v>
+      </c>
+      <c r="E36" t="n">
+        <v>104046072.1260494</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13210622489.82716</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1745653351661.845</v>
+      </c>
+      <c r="H36" t="n">
+        <v>193355606280828</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.988307758238351e+16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.865282061830548e+18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.167025678364996e+20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-4.505943929852645e+21</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-3.42988015346895e+24</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-8.61548429480335e+26</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-1.713088058081098e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-2.911639849291303e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-4.418876847113968e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-6.325743054745656e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-9.040958118674204e+37</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>0.05039469239145366</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0064213426474793</v>
+        <v>4.001772431197842</v>
+      </c>
+      <c r="C37" t="n">
+        <v>622.0511412292659</v>
+      </c>
+      <c r="D37" t="n">
+        <v>93813.85050864596</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13942285.50713551</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1912173880.554412</v>
+      </c>
+      <c r="G37" t="n">
+        <v>241957680301.0664</v>
+      </c>
+      <c r="H37" t="n">
+        <v>24254035482027.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1896931130022811</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8.695219587780776e+16</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-5.66217190793138e+18</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-2.337915071616007e+21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-4.346069033171209e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-6.68280753200754e+25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-9.40086217140957e+27</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.20992977011502e+30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.445016334612208e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1.658191575953672e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1.901788201136663e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.3449913081183461</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2993136825837875</v>
+        <v>62.81264573006059</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10969.63964014709</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1859652.264006797</v>
+      </c>
+      <c r="E38" t="n">
+        <v>300481680.4318438</v>
+      </c>
+      <c r="F38" t="n">
+        <v>45375934094.09838</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6340786489047.118</v>
+      </c>
+      <c r="H38" t="n">
+        <v>885030570692686.6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.318817575248628e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.941712206843761e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.761618684287044e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.7632956484882e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.851938809200218e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.788766423529602e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.451797409374936e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.384249772790539e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.022611890946386e+34</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.701876312029545e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.859598516684708e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.08949323932445991</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1543204714276162</v>
+        <v>-25.3901121460558</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-6220.45285190388</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1483546.141916556</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-376341850.2521924</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-107135097375.9512</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-33317803912420.64</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1.008662853936039e+16</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.96586401579716e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-8.382501421770657e+20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-2.270006351791603e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-5.938154242780655e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.516733102094628e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-3.824891540916102e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-9.56519086963176e+32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-2.375657513903703e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-5.875116031419153e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1.451069498680626e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-3.58634402048325e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.1644700705108344</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1810125953524771</v>
+        <v>25.55141861267765</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4202.033179111549</v>
+      </c>
+      <c r="D40" t="n">
+        <v>700878.5554388657</v>
+      </c>
+      <c r="E40" t="n">
+        <v>87734494.76124951</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7373680564.831629</v>
+      </c>
+      <c r="G40" t="n">
+        <v>817320622942.6753</v>
+      </c>
+      <c r="H40" t="n">
+        <v>73148593707748.7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5609742168076277</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.084389531157991e+17</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-4.74422341902929e+19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-1.5100864819383e+22</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-2.872852299163817e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-4.733687455987432e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-7.403455554042492e+28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-1.085409280925356e+31</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.500495519597963e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-2.009499752851393e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-2.690009697915613e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.1659332337896862</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1951428843044119</v>
+        <v>-17.23363063916958</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1327.446641509773</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-8273.401569227814</v>
+      </c>
+      <c r="E41" t="n">
+        <v>29154823.56391427</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10143885709.83021</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2690804797094.485</v>
+      </c>
+      <c r="H41" t="n">
+        <v>540778779215083.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.482212065513477e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.159797165114498e+19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.490234253276381e+21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.733308472273475e+23</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.701270847460441e+25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9.443614218587678e+26</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1.238685693278055e+29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-5.10787269786033e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.01855245020062e+34</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-1.621527726421264e+36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2.545666426912731e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.2550643703135704</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2531039654461633</v>
+        <v>33.04937007330281</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3608.344140079932</v>
+      </c>
+      <c r="D42" t="n">
+        <v>428703.1668342792</v>
+      </c>
+      <c r="E42" t="n">
+        <v>50669267.90474349</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5595375175.692603</v>
+      </c>
+      <c r="G42" t="n">
+        <v>543654923173.7077</v>
+      </c>
+      <c r="H42" t="n">
+        <v>50159282743188.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5011985074405526</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.225981255734515e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.235577150511681e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.779092831087721e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.587487203752981e+23</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.677220868087815e+25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-5.686751393568817e+26</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-2.521787225840049e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-3.614355649094194e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-3.930846719485181e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-4.198176794968284e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.1670444740067412</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1673087483328268</v>
+        <v>36.9943314833651</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8909.861241578381</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2086981.296624759</v>
+      </c>
+      <c r="E43" t="n">
+        <v>475386587.8083768</v>
+      </c>
+      <c r="F43" t="n">
+        <v>104590530627.9364</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22220798912687.38</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4449461827726897</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.553269592559757e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.587994528617925e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.816598712086791e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.638413181515862e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6.733663641311934e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.763335310680654e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.087806727605766e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-3.97456189990657e+32</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1.858820063509497e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-3.528939490338683e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-6.445868712878639e+39</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>-0.1037455053460379</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.08646426511031464</v>
+        <v>-20.78141179726584</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4341.995616857113</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-864741.8892293526</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-167374576.8634763</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-32192220278.10131</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-6116437227710.211</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1229360406504997</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-2.350935446157488e+17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-4.331284601258595e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-8.0220598065083e+21</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.593020201816147e+24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-3.434354875736406e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-7.449083618888251e+28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-1.586939730101972e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-3.258124002041639e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-6.439694025384223e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.247998188192138e+38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-2.420062710066132e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.104794556577724</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.08798903293491311</v>
+        <v>-3.749392025815442</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-420.5058304756952</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-27464.69767264457</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1930174.548349218</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-182373857.2367963</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-37217771266.97802</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-9554281281825.711</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-1722779103409482</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-2.513253780408294e+17</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-3.427753168124182e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-4.564091870062901e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-6.016336878302501e+23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-7.749112054386409e+25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-9.664402473562182e+27</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.153542047919592e+30</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.320347442412061e+32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-1.477002281742009e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-1.652588354562196e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1925971413069253</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1761233106356346</v>
+        <v>-5.147612876976682</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-191.0407023517919</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6364.790788879132</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-199726.2139719012</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6074526.338660903</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-211887629.8251434</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5878134552.230462</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-136523444645.9353</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-2110588769551.916</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14794325642589.03</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2837105909876999</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.43607710074499e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.916118803717789e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.345052597718382e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.875508910750647e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.234598999257923e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.157386712038707e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.130616312580267e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1900851859062858</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1758569071786635</v>
+        <v>-6.50371419219172</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-292.3208849894525</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-11863.11387223119</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-452358.2570800168</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-16781656.88101401</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-710545859.5546994</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-24470708169.80106</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-725744412813.0316</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-16298804240686.31</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-117468806314436.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.28598279632238e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.454843372621548e+17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.941213485665473e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.436447848856152e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.129683412561728e+23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.993941905202592e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.158171336087925e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9.296789649793125e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2281306172181959</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2028629821515599</v>
+        <v>-6.903364694615053</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-295.9864866440753</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-11439.73694915223</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-425314.4109108396</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-15511899.60981761</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-635188725.7003965</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-21586992687.40612</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-648192395776.2861</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-15600768263113.19</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-208855170013460.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4694026684431592</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4.891120037405894e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.703314250350612e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.36391543869659e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.337641872356966e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.77462175589752e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.18141809189502e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.007089718763057e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2203072234534432</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2004981598542138</v>
+        <v>-8.950214809503965</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-462.3143752917663</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-21470.19903911699</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-965483.3320272751</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-43000096.85267998</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2121254273.363196</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-88515458327.1924</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3319558497385.854</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-104282017533866.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-2318804159169066</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-9017734192599840</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.425270661544864e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.021531259290402e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.361526953525646e+22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7.998920057650722e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4.311381461225051e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.236468245930816e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.152853461090678e+29</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.1494051867186948</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1368666296624268</v>
+        <v>-13.22657489919518</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1208.722043300191</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-99387.75283948603</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7886653.063630628</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-619734180.4231402</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-51206967480.77157</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3634827865813.006</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-234251439863590.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.337061613498511e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.490571808511162e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.608601044804026e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-9.236234671443306e+20</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.82425369238005e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.513775897847623e+24</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4.230692012778159e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4.335463816488138e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.873781242431684e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.401410875736288e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2130587950665102</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2213222295619814</v>
+        <v>-8.526827826833838</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-407.3732819952344</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-17824.82531964411</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-749882.335785426</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-30797979.15596591</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1424867297.94617</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-55626426626.55077</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1950639266421.461</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-56511906150530.77</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1083721270113918</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4364189624134400</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.631794920147383e+18</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.155479554673705e+20</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7.042279260770054e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.844563699966804e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.950743540139371e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9.570480979895313e+26</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.664068835790228e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2130587950665102</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2213222295619814</v>
+        <v>-8.526827826833838</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-407.3732819952344</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-17824.82531964411</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-749882.335785426</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-30797979.15596591</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1424867297.94617</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-55626426626.55077</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1950639266421.461</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-56511906150530.77</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1083721270113918</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4364189624134400</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.631794920147383e+18</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.155479554673705e+20</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7.042279260770054e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.844563699966804e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.950743540139371e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9.570480979895313e+26</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.664068835790228e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.2040477838392285</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1859288231682639</v>
+        <v>-4.610017957752987</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-169.4741311816272</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-5688.972575127344</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-176920.5468224459</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-5198672.276097031</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-179113941.3415229</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4898605812.656707</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-112915143918.7723</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1806980173953.995</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4582939838423.375</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1830263493435766</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.268040580514659e+16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.726481352383692e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.443210083048089e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5.334749107975765e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.898010734292081e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.629470617730128e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.309093828741974e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2095204110480183</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1994429908687647</v>
+        <v>-13.89003496464298</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1019.267806612284</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-67687.1335194865</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4285182.837606185</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-264072196.4798506</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-17914952700.99728</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1063148755245.089</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-58567662689123.84</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2869650558084309</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.204251397624664e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-4.232834001549236e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.316573613737503e+20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-2.395554448950358e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.372295768288113e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.543671078602309e+25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.144810930612887e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.425922271805794e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.830761873728592e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1720922102463877</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1490445105651763</v>
+        <v>-4.792361480655961</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-205.396509102639</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7637.41793517262</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-279980.6741950805</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-10384848.04087179</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-427532895.8863488</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13935459842.15676</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-382537239002.4708</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-7518361846668.723</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-10635835885992.12</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8056105328545252</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4.999518136867377e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.379966655918037e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.082736661684787e+21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.671225742355482e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.931294870959363e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.824210498749021e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.160785055026832e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.1587711423644652</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1409908660108635</v>
+        <v>-7.89260459540456</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-417.5613556888382</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-19484.68995533313</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-878851.4213415093</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-39780992.05132181</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1917783992.469435</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-77818457820.64825</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2799470314054.213</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-81557331444974.14</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1431469744430386</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2.413071939670029e+16</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.784931614997001e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.619113614769307e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.6022568267547e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>8.889827145695101e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.608610181255055e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.315405418677648e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.158538560248008e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.1972692006844608</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.155633558866462</v>
+        <v>-7.217451657114189</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-323.8781252161393</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-13167.97400740036</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-507116.8560860994</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-18854203.51182459</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-764893429.6839527</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-25493770700.92315</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-740276269706.3044</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-16391969043082.54</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-105496350412712.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.425786581636996e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.059142777365693e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.650014387651094e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.797680816624205e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.288431775827334e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.614091507951793e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.383650190430357e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.010563884907028e+28</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.1813738256061986</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.213516391298937</v>
+        <v>-9.024113682511549</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-418.4468991114185</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-18667.45066791871</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-777889.0219025993</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-30686155.17757392</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1268777292.07655</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-45117375127.91858</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1464906750484.357</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-40108970846788.01</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-731073913868660.8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4378409356292432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.255627805500147e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.834790556031037e+19</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.096943378503861e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.584091335720785e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.203638407054425e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.394189581757182e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.411135704786246e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2222151474455981</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2355574678922932</v>
+        <v>-9.797109510065994</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-477.8697789380374</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-21889.63515192399</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-977033.082859506</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-42446044.04356979</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1935231073.532907</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-76842259131.74153</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2827230043053.829</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-90365976660053.66</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2252504886782861</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-2.937014286388464e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.785145822741862e+17</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.242227262712774e+20</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.048924256690231e+21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5.301663025394037e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.757709827185404e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.363142562774448e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6.70115050863101e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.2095247580315729</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2389769316631077</v>
+        <v>-15.92096777828043</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1095.606887093927</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-71138.91766210264</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4608680.555230771</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-293146589.1129565</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-19077879036.97064</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1112815485795.824</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-61794463932651.34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-3079343728678778</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.319258803252124e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-4.488594194221375e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-8.829306222893059e+19</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.060927419219282e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9.889527879456734e+23</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.646925972782044e+25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.510561553537798e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.372068367641684e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.818276551585683e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.2722358043226074</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.229451432604436</v>
+        <v>-43.08068850651225</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-9102.11859388648</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1911535.296512537</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-395303459.3744425</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-80601971476.70107</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-16125335857571.13</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2868142619463192</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-4.816123600056933e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.444389773161588e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.049909420923073e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.402736628530111e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-1.971638886213142e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-2.88271549709549e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-3.88888862908195e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-5.261843753919719e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-8.195042965585529e+34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-1.468742088705336e+37</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-2.635954391020303e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1606000546365942</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1007039242574877</v>
+        <v>-2.367212444602936</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-100.2083850970755</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3379.775418665385</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-116698.9373039262</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4193625.926855154</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-156563214.6187932</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-4376103042.971531</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-95550406726.17047</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1075811089534.89</v>
+      </c>
+      <c r="K62" t="n">
+        <v>35802436031953.56</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3176438598232769</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.494244760689231e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.009001525989528e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.320445970837633e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.535368065743834e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.015608832071508e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.045198095973634e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.61968590847541e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.3529740683774172</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4020249240780268</v>
+        <v>-17.88676056196431</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-902.5174121656712</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-43486.00196353983</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2089911.32064641</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-98855284.48788606</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4944682692.315178</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-230410405084.4668</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-10787248806081.38</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-475157384892259.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1.910265315515114e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-6.947154694817716e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-2.260264152824252e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-5.362072987564379e+20</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4.662637666058042e+21</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.60438572470139e+24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.313565246353472e+26</v>
+      </c>
+      <c r="R63" t="n">
+        <v>8.631130329953381e+27</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5.463759172442797e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2577263942527296</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2638823367836596</v>
+        <v>-8.018189330291538</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-331.4739756830807</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-12938.47653154615</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-481818.0535845447</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-16983908.02188219</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-687357141.1534405</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-23288347419.49291</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-709055928047.5061</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-17998339578445</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-293754620179512.8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2513233565494480</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.8267605547523e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.031938449357811e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.613629695837485e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.629569852459759e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.331447405072691e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.403119048714005e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.891568287466418e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.1998195694491312</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2303599148437729</v>
+        <v>-22.2770454762352</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1896.928425854049</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-150432.5583181272</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-11509159.12018685</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-849736180.3410394</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-65358736349.48657</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4674636447339.608</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-325980084134496.2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2.073380351799628e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.1933895299238e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-6.210518268437175e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-2.981806710818823e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.127226019625958e+23</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5.11239337208166e+22</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5.119532023669459e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6.153578618411393e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5.654654109313942e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.091122347517486e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.120372322293627</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.09740285784665913</v>
+        <v>-5.669353061107564</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-319.1284361584542</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-15419.86215587469</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-774837.2272358766</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-40853486.8269348</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2078917243.31317</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-87880665573.55328</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3283723649618.21</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-101826556685258.2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-2103871737553307</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.517292376668982e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4.764764198838781e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3.779428563276342e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.458326182879765e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.401576658074686e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.323612849529408e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.67880876399675e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.844271610090504e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>-0.06217892092423713</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.05586642611577743</v>
+        <v>-7.653153904843858</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-421.3167020907712</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-20497.25821768792</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-951755.3366712469</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-43594588.78368761</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1967229893.535678</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-77824473607.40527</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2796835564856.548</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-85222466906788.12</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1910298557219653</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-1.019198929126115e+16</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.030496193435653e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.808120527502138e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.183108423963573e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.566466639410071e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.294141300844371e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.579438495841419e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.555737253901228e+28</v>
       </c>
     </row>
   </sheetData>
